--- a/Outputs/요구사항 명세서.xlsx
+++ b/Outputs/요구사항 명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevin\Desktop\IMetA_project\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevin\Desktop\IMetA_project\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8FF710-72EE-4ACF-BC04-095453589AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35DFC9-DC2A-4B84-B093-30A957A5A56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="0" windowWidth="20220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="0" windowWidth="20220" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>화면명</t>
   </si>
@@ -250,7 +250,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>정렬? 어떻게 보여질건지</t>
+    <t>이름순, 협력기간 순으로 정렬한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색이 가능하다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1454,10 +1458,10 @@
         <v>11</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="34">
         <v>44646</v>
@@ -1510,7 +1514,9 @@
       <c r="D24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
       <c r="H24" s="32"/>

--- a/Outputs/요구사항 명세서.xlsx
+++ b/Outputs/요구사항 명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yevin\Desktop\IMetA_project\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35DFC9-DC2A-4B84-B093-30A957A5A56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229C614D-0F63-4820-A69D-D5E93D31C521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="0" windowWidth="20220" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="750" windowWidth="20220" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>화면명</t>
   </si>
@@ -250,11 +250,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>이름순, 협력기간 순으로 정렬한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>검색이 가능하다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>반영</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 사용자게시글의 상태를 변경할 수 있다. 답변대기/답변완료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름순으로 정렬한다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1098,7 +1106,9 @@
       <c r="D6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>56</v>
+      </c>
       <c r="F6" s="34">
         <v>44646</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>22</v>
@@ -1152,7 +1162,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>21</v>
@@ -1182,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>21</v>
@@ -1228,7 +1238,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>21</v>
@@ -1306,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>21</v>
@@ -1334,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>21</v>
@@ -1362,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>21</v>
@@ -1383,7 +1393,9 @@
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="I18" s="32"/>
       <c r="J18" s="35"/>
     </row>
@@ -1424,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>22</v>
@@ -1461,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="34">
         <v>44646</v>
@@ -1470,7 +1482,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>22</v>
@@ -1498,7 +1510,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I23" s="32" t="s">
         <v>22</v>
@@ -1515,7 +1527,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
@@ -1576,7 +1588,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>21</v>
@@ -1604,7 +1616,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I28" s="36" t="s">
         <v>21</v>
@@ -1632,7 +1644,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I29" s="32" t="s">
         <v>21</v>
